--- a/modified/data.xlsx
+++ b/modified/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,8 +1611,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="386379520"/>
-        <c:axId val="386382656"/>
+        <c:axId val="384061584"/>
+        <c:axId val="384063152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2356,11 +2356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="386379520"/>
-        <c:axId val="386382656"/>
+        <c:axId val="384061584"/>
+        <c:axId val="384063152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="386379520"/>
+        <c:axId val="384061584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386382656"/>
+        <c:crossAx val="384063152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2411,7 +2411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386382656"/>
+        <c:axId val="384063152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,7 +2462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386379520"/>
+        <c:crossAx val="384061584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3355,8 +3355,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="386376776"/>
-        <c:axId val="456546408"/>
+        <c:axId val="381203424"/>
+        <c:axId val="381199504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4100,11 +4100,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="456551504"/>
-        <c:axId val="456551112"/>
+        <c:axId val="174107872"/>
+        <c:axId val="378754008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="386376776"/>
+        <c:axId val="381203424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,7 +4147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456546408"/>
+        <c:crossAx val="381199504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4155,7 +4155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="456546408"/>
+        <c:axId val="381199504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4206,12 +4206,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386376776"/>
+        <c:crossAx val="381203424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456551112"/>
+        <c:axId val="378754008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4248,12 +4248,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456551504"/>
+        <c:crossAx val="174107872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="456551504"/>
+        <c:axId val="174107872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4263,7 +4263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456551112"/>
+        <c:crossAx val="378754008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5159,8 +5159,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="383791640"/>
-        <c:axId val="382220184"/>
+        <c:axId val="174111400"/>
+        <c:axId val="174105520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5904,11 +5904,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383791640"/>
-        <c:axId val="382220184"/>
+        <c:axId val="174111400"/>
+        <c:axId val="174105520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="383791640"/>
+        <c:axId val="174111400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5951,7 +5951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382220184"/>
+        <c:crossAx val="174105520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5959,7 +5959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="382220184"/>
+        <c:axId val="174105520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6010,7 +6010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383791640"/>
+        <c:crossAx val="174111400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6847,8 +6847,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="632705824"/>
-        <c:axId val="632704648"/>
+        <c:axId val="174112968"/>
+        <c:axId val="174109440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7592,11 +7592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632707392"/>
-        <c:axId val="632705040"/>
+        <c:axId val="174110616"/>
+        <c:axId val="174112184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632705824"/>
+        <c:axId val="174112968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7639,7 +7639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632704648"/>
+        <c:crossAx val="174109440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7647,7 +7647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632704648"/>
+        <c:axId val="174109440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7698,12 +7698,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632705824"/>
+        <c:crossAx val="174112968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632705040"/>
+        <c:axId val="174112184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7740,12 +7740,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632707392"/>
+        <c:crossAx val="174110616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="632707392"/>
+        <c:axId val="174110616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7755,7 +7755,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632705040"/>
+        <c:crossAx val="174112184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8658,8 +8658,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="632712096"/>
-        <c:axId val="632702688"/>
+        <c:axId val="174113360"/>
+        <c:axId val="174108264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9403,11 +9403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632708568"/>
-        <c:axId val="632713272"/>
+        <c:axId val="174113752"/>
+        <c:axId val="174103952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632712096"/>
+        <c:axId val="174113360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9450,7 +9450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632702688"/>
+        <c:crossAx val="174108264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9458,7 +9458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632702688"/>
+        <c:axId val="174108264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9509,12 +9509,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632712096"/>
+        <c:crossAx val="174113360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632713272"/>
+        <c:axId val="174103952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9551,12 +9551,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632708568"/>
+        <c:crossAx val="174113752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="632708568"/>
+        <c:axId val="174113752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9566,7 +9566,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632713272"/>
+        <c:crossAx val="174103952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9689,7 +9689,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> rate vs corruption</a:t>
+              <a:t> rate vrs corrption and corruption vrs death rate</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -11307,11 +11307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="640117600"/>
-        <c:axId val="640127008"/>
+        <c:axId val="174114144"/>
+        <c:axId val="174106696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="640117600"/>
+        <c:axId val="174114144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11384,12 +11384,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640127008"/>
+        <c:crossAx val="174106696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="640127008"/>
+        <c:axId val="174106696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11477,7 +11477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640117600"/>
+        <c:crossAx val="174114144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20250,7 +20250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
